--- a/data/example/Power_Inflows.xlsx
+++ b/data/example/Power_Inflows.xlsx
@@ -28,7 +28,7 @@
     <font>
       <name val="Aptos"/>
       <b val="1"/>
-      <color rgb="00FFFFFF"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="18"/>
     </font>
     <font>
@@ -43,7 +43,7 @@
     </font>
     <font>
       <name val="Aptos"/>
-      <color rgb="000000FF"/>
+      <color rgb="FF0000FF"/>
       <sz val="11"/>
     </font>
     <font>
@@ -60,38 +60,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00008080"/>
-        <bgColor rgb="00008080"/>
+        <fgColor rgb="FF008080"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DAEEF3"/>
-        <bgColor rgb="00DAEEF3"/>
+        <fgColor rgb="FFDAEEF3"/>
+        <bgColor rgb="FFDAEEF3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9D9D9"/>
-        <bgColor rgb="00D9D9D9"/>
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F2F2F2"/>
-        <bgColor rgb="00F2F2F2"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCFFCC"/>
-        <bgColor rgb="00CCFFCC"/>
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B8CCE4"/>
-        <bgColor rgb="00B8CCE4"/>
+        <fgColor rgb="FFB8CCE4"/>
+        <bgColor rgb="FFB8CCE4"/>
       </patternFill>
     </fill>
   </fills>
@@ -536,7 +536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00008080"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -553,36 +553,36 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5.5709375" customWidth="1" min="1" max="1"/>
+    <col width="5.5703125" customWidth="1" min="1" max="1"/>
     <col width="19.7109375" customWidth="1" min="2" max="2"/>
     <col width="15.7109375" customWidth="1" min="3" max="3"/>
     <col width="15.7109375" customWidth="1" min="4" max="4"/>
-    <col width="24.5709375" customWidth="1" min="5" max="5"/>
-    <col width="24.5709375" customWidth="1" min="6" max="6"/>
-    <col width="11.2809375" customWidth="1" min="7" max="7"/>
-    <col width="11.2809375" customWidth="1" min="8" max="8"/>
-    <col width="11.2809375" customWidth="1" min="9" max="9"/>
-    <col width="11.2809375" customWidth="1" min="10" max="10"/>
-    <col width="11.2809375" customWidth="1" min="11" max="11"/>
-    <col width="11.2809375" customWidth="1" min="12" max="12"/>
-    <col width="11.2809375" customWidth="1" min="13" max="13"/>
-    <col width="11.2809375" customWidth="1" min="14" max="14"/>
-    <col width="11.2809375" customWidth="1" min="15" max="15"/>
-    <col width="11.2809375" customWidth="1" min="16" max="16"/>
-    <col width="11.2809375" customWidth="1" min="17" max="17"/>
-    <col width="11.2809375" customWidth="1" min="18" max="18"/>
-    <col width="11.2809375" customWidth="1" min="19" max="19"/>
-    <col width="11.2809375" customWidth="1" min="20" max="20"/>
-    <col width="11.2809375" customWidth="1" min="21" max="21"/>
-    <col width="11.2809375" customWidth="1" min="22" max="22"/>
-    <col width="11.2809375" customWidth="1" min="23" max="23"/>
-    <col width="11.2809375" customWidth="1" min="24" max="24"/>
-    <col width="11.2809375" customWidth="1" min="25" max="25"/>
-    <col width="11.2809375" customWidth="1" min="26" max="26"/>
-    <col width="11.2809375" customWidth="1" min="27" max="27"/>
-    <col width="11.2809375" customWidth="1" min="28" max="28"/>
-    <col width="11.2809375" customWidth="1" min="29" max="29"/>
-    <col width="11.2809375" customWidth="1" min="30" max="30"/>
+    <col width="24.5703125" customWidth="1" min="5" max="5"/>
+    <col width="24.5703125" customWidth="1" min="6" max="6"/>
+    <col width="11.28515625" customWidth="1" min="7" max="7"/>
+    <col width="11.28515625" customWidth="1" min="8" max="8"/>
+    <col width="11.28515625" customWidth="1" min="9" max="9"/>
+    <col width="11.28515625" customWidth="1" min="10" max="10"/>
+    <col width="11.28515625" customWidth="1" min="11" max="11"/>
+    <col width="11.28515625" customWidth="1" min="12" max="12"/>
+    <col width="11.28515625" customWidth="1" min="13" max="13"/>
+    <col width="11.28515625" customWidth="1" min="14" max="14"/>
+    <col width="11.28515625" customWidth="1" min="15" max="15"/>
+    <col width="11.28515625" customWidth="1" min="16" max="16"/>
+    <col width="11.28515625" customWidth="1" min="17" max="17"/>
+    <col width="11.28515625" customWidth="1" min="18" max="18"/>
+    <col width="11.28515625" customWidth="1" min="19" max="19"/>
+    <col width="11.28515625" customWidth="1" min="20" max="20"/>
+    <col width="11.28515625" customWidth="1" min="21" max="21"/>
+    <col width="11.28515625" customWidth="1" min="22" max="22"/>
+    <col width="11.28515625" customWidth="1" min="23" max="23"/>
+    <col width="11.28515625" customWidth="1" min="24" max="24"/>
+    <col width="11.28515625" customWidth="1" min="25" max="25"/>
+    <col width="11.28515625" customWidth="1" min="26" max="26"/>
+    <col width="11.28515625" customWidth="1" min="27" max="27"/>
+    <col width="11.28515625" customWidth="1" min="28" max="28"/>
+    <col width="11.28515625" customWidth="1" min="29" max="29"/>
+    <col width="11.28515625" customWidth="1" min="30" max="30"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1">
@@ -2636,6 +2636,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>